--- a/assignment_starters/assign2_starter/leaky_iandf.xlsx
+++ b/assignment_starters/assign2_starter/leaky_iandf.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyhogeveen/Dropbox/Fall_2020/teaching/DSPN_Fall2020_workdir/exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyhogeveen/Dropbox/Fall_2022/teaching/DSPN/DSPN_Fall2022_Git/assignment_starters/assign2_starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EE7C3-03BB-F348-9577-9E21112C7B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F7E25-7B1A-BB42-984E-76ECD31B5D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="1380" windowWidth="27780" windowHeight="17940" xr2:uid="{F9D1610A-231F-8042-93D4-FDC275CE56A9}"/>
+    <workbookView xWindow="35360" yWindow="700" windowWidth="27780" windowHeight="17940" xr2:uid="{F9D1610A-231F-8042-93D4-FDC275CE56A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$152</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$152</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -652,454 +646,454 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.7195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.0475500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3427950000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.6085155000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.8476639500000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.0628975550000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.2566077995000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.43094701955</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.5878523175949999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.7290670858354997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.8561603772519497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.9705443395267546</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.0734899055740792</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="52">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="69">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="86">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="103">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="120">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7195</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0475500000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.3427950000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.6085155000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.8476639500000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.0628975550000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2566077995000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.43094701955</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.5878523175949999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.7290670858354997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.8561603772519497</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.9705443395267546</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.0734899055740792</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="137">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="138">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="139">
                   <c:v>1.355</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="140">
                   <c:v>1.7195</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="141">
                   <c:v>2.0475500000000002</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="142">
                   <c:v>2.3427950000000002</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="143">
                   <c:v>2.6085155000000002</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="144">
                   <c:v>2.8476639500000003</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="145">
                   <c:v>3.0628975550000002</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="146">
                   <c:v>3.2566077995000002</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="147">
                   <c:v>3.43094701955</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="148">
                   <c:v>3.5878523175949999</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="149">
                   <c:v>3.7290670858354997</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="150">
                   <c:v>3.8561603772519497</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.9705443395267546</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.0734899055740792</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.355</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.7195</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.0475500000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3427950000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.6085155000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.8476639500000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.0628975550000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.2566077995000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.43094701955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5878523175949999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.7290670858354997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.8561603772519497</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.9705443395267546</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.0734899055740792</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.355</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.7195</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.0475500000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.3427950000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.6085155000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.8476639500000003</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.0628975550000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.2566077995000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.43094701955</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.5878523175949999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.7290670858354997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.8561603772519497</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.9705443395267546</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.0734899055740792</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.355</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.7195</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0475500000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.3427950000000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.6085155000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.8476639500000003</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.0628975550000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.2566077995000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.43094701955</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.5878523175949999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.7290670858354997</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.8561603772519497</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.9705443395267546</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.0734899055740792</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.355</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.7195</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.0475500000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.3427950000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.1085155000000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.8976639500000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.7078975550000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.5371077995000002</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.3833970195500003</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.2450573175950002</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.1205515858355002</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.0084964272519501</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.90764678452675507</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.81688210607407952</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.73519389546667158</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.66167450592000443</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.59550705532800396</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.53595634979520357</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.48236071481568321</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.43412464333411488</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.39071217900070337</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.35164096110063303</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.31647686499056971</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.28482917849151274</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.25634626064236143</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.2307116345781253</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.20764047112031275</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.18687642400828147</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.16818878160745332</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.15136990344670798</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.13623291310203717</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.12260962179183345</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.1103486596126501</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>9.9313793651385096E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8.9382414286246589E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>8.0444172857621926E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>7.2399755571859736E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6.5159780014673763E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>5.8643802013206389E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>5.2779421811885753E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4.7501479630697174E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>4.2751331667627457E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.8476198500864714E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.4628578650778244E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3.1165720785700419E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2.8049148707130378E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2.524423383641734E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2.2719810452775605E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.0447829407498043E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.840304646674824E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1.6562741820073418E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1.4906467638066075E-2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1.3415820874259467E-2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.207423878683352E-2</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.0866814908150167E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,12 +2347,11 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IF(AND(B2&gt;25*$A$2,B2&lt;100*$A$2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f>SUM(G2:G152)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2367,2698 +2360,2548 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(E2&lt;=$D$2,E2+$A$2*(-1*E2/$C$2 + $F$2*H3/$C$2),0)</f>
-        <v>0</v>
+        <f>IF(E2&lt;=$D$2,E2+$A$2*(-1*(E2/$C$2) + $F$2*(H3/$C$2)),0)</f>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <f>IF(E3&gt;$D$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">IF(AND(B3&gt;25*$A$2,B3&lt;100*$A$2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="1">B3+$A$2</f>
+        <f t="shared" ref="B4:B67" si="0">B3+$A$2</f>
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="2">IF(E3&lt;=$D$2,E3+$A$2*(-1*E3/$C$2 + $F$2*H4/$C$2),0)</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E67" si="1">IF(E3&lt;=$D$2,E3+$A$2*(-1*(E3/$C$2) + $F$2*(H4/$C$2)),0)</f>
+        <v>0.95</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="3">IF(E4&gt;$D$2,1,0)</f>
+        <f t="shared" ref="G4:G67" si="2">IF(E4&gt;$D$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.355</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.7195</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.355</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.7195</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
+        <f t="shared" si="1"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>1.355</v>
+        <f t="shared" si="1"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>1.7195</v>
+        <f t="shared" si="1"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>2.0475500000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>2.3427950000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
-        <v>2.6085155000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>2.8476639500000003</v>
+        <f t="shared" si="1"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>3.0628975550000002</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>3.2566077995000002</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>3.43094701955</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>3.5878523175949999</v>
+        <f t="shared" si="1"/>
+        <v>1.355</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>3.7290670858354997</v>
+        <f t="shared" si="1"/>
+        <v>1.7195</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>3.8561603772519497</v>
+        <f t="shared" si="1"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>3.9705443395267546</v>
+        <f t="shared" si="1"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>4.0734899055740792</v>
+        <f t="shared" si="1"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
+        <f t="shared" si="1"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
-        <v>1.355</v>
+        <f t="shared" si="1"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
-        <v>1.7195</v>
+        <f t="shared" si="1"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
-        <v>2.0475500000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
-        <v>2.3427950000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
-        <v>2.6085155000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
-        <v>2.8476639500000003</v>
+        <f t="shared" si="1"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
-        <v>3.0628975550000002</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
-        <v>3.2566077995000002</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
-        <v>3.43094701955</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>3.5878523175949999</v>
+        <f t="shared" si="1"/>
+        <v>1.355</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
-        <v>3.7290670858354997</v>
+        <f t="shared" si="1"/>
+        <v>1.7195</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
-        <v>3.8561603772519497</v>
+        <f t="shared" si="1"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
-        <v>3.9705443395267546</v>
+        <f t="shared" si="1"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
-        <v>4.0734899055740792</v>
+        <f t="shared" si="1"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
+        <f t="shared" si="1"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
-        <v>1.355</v>
+        <f t="shared" si="1"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
-        <v>1.7195</v>
+        <f t="shared" si="1"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
-        <v>2.0475500000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
-        <v>2.3427950000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="4">IF(AND(B67&gt;25*$A$2,B67&lt;100*$A$2),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68">
-        <f t="shared" ref="B68:B76" si="5">B67+$A$2</f>
+        <f t="shared" ref="B68:B76" si="3">B67+$A$2</f>
         <v>66</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E76" si="6">IF(E67&lt;=$D$2,E67+$A$2*(-1*E67/$C$2 + $F$2*H68/$C$2),0)</f>
-        <v>2.6085155000000002</v>
+        <f t="shared" ref="E68:E131" si="4">IF(E67&lt;=$D$2,E67+$A$2*(-1*(E67/$C$2) + $F$2*(H68/$C$2)),0)</f>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G76" si="7">IF(E68&gt;$D$2,1,0)</f>
+        <f t="shared" ref="G68:G76" si="5">IF(E68&gt;$D$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>4.0734899055740792</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="6"/>
-        <v>2.8476639500000003</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="B70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="6"/>
-        <v>3.0628975550000002</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="6"/>
-        <v>3.2566077995000002</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="B72">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="6"/>
-        <v>3.43094701955</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>1.355</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="6"/>
-        <v>3.5878523175949999</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>1.7195</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="6"/>
-        <v>3.7290670858354997</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>2.0475500000000002</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="6"/>
-        <v>3.8561603772519497</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>2.3427950000000002</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="6"/>
-        <v>3.9705443395267546</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77">
-        <f t="shared" ref="B77:B101" si="8">B76+$A$2</f>
+        <f t="shared" ref="B77:B101" si="6">B76+$A$2</f>
         <v>75</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E101" si="9">IF(E76&lt;=$D$2,E76+$A$2*(-1*E76/$C$2 + $F$2*H77/$C$2),0)</f>
-        <v>4.0734899055740792</v>
+        <f t="shared" si="4"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G101" si="10">IF(E77&gt;$D$2,1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="G77:G101" si="7">IF(E77&gt;$D$2,1,0)</f>
+        <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
-        <v>0.95</v>
+        <f t="shared" si="4"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
-        <v>1.355</v>
+        <f t="shared" si="4"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
-        <v>1.7195</v>
+        <f t="shared" si="4"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
-        <v>2.0475500000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
-        <v>2.3427950000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
-        <v>2.6085155000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
-        <v>2.8476639500000003</v>
+        <f t="shared" si="4"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G86">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
-        <v>3.0628975550000002</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:8">
       <c r="B88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
-        <v>3.2566077995000002</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="G88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
-        <v>3.43094701955</v>
+        <f t="shared" si="4"/>
+        <v>0.95</v>
       </c>
       <c r="G89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:8">
       <c r="B90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
-        <v>3.5878523175949999</v>
+        <f t="shared" si="4"/>
+        <v>1.355</v>
       </c>
       <c r="G90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="E91">
-        <f t="shared" si="9"/>
-        <v>3.7290670858354997</v>
+        <f t="shared" si="4"/>
+        <v>1.7195</v>
       </c>
       <c r="G91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="B92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="E92">
-        <f t="shared" si="9"/>
-        <v>3.8561603772519497</v>
+        <f t="shared" si="4"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="E93">
-        <f t="shared" si="9"/>
-        <v>3.9705443395267546</v>
+        <f t="shared" si="4"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="E94">
-        <f t="shared" si="9"/>
-        <v>4.0734899055740792</v>
+        <f t="shared" si="4"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G94">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="E95">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:8">
       <c r="B96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="E96">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:8">
       <c r="B97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="E97">
-        <f t="shared" si="9"/>
-        <v>0.95</v>
+        <f t="shared" si="4"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:8">
       <c r="B98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="E98">
-        <f t="shared" si="9"/>
-        <v>1.355</v>
+        <f t="shared" si="4"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:8">
       <c r="B99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="E99">
-        <f t="shared" si="9"/>
-        <v>1.7195</v>
+        <f t="shared" si="4"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:8">
       <c r="B100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="E100">
-        <f t="shared" si="9"/>
-        <v>2.0475500000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:8">
       <c r="B101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="E101">
-        <f t="shared" si="9"/>
-        <v>2.3427950000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102">
-        <f t="shared" ref="B102:B152" si="11">B101+$A$2</f>
+        <f t="shared" ref="B102:B152" si="8">B101+$A$2</f>
         <v>100</v>
       </c>
       <c r="E102">
-        <f t="shared" ref="E102:E152" si="12">IF(E101&lt;=$D$2,E101+$A$2*(-1*E101/$C$2 + $F$2*H102/$C$2),0)</f>
-        <v>2.1085155000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G102">
-        <f t="shared" ref="G102:G152" si="13">IF(E102&gt;$D$2,1,0)</f>
+        <f t="shared" ref="G102:G152" si="9">IF(E102&gt;$D$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
       <c r="E103">
-        <f t="shared" si="12"/>
-        <v>1.8976639500000001</v>
+        <f t="shared" si="4"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G103">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:8">
       <c r="B104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="E104">
-        <f t="shared" si="12"/>
-        <v>1.7078975550000002</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:8">
       <c r="B105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="E105">
-        <f t="shared" si="12"/>
-        <v>1.5371077995000002</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="G105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:8">
       <c r="B106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="E106">
-        <f t="shared" si="12"/>
-        <v>1.3833970195500003</v>
+        <f t="shared" si="4"/>
+        <v>0.95</v>
       </c>
       <c r="G106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="2:8">
       <c r="B107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="E107">
-        <f t="shared" si="12"/>
-        <v>1.2450573175950002</v>
+        <f t="shared" si="4"/>
+        <v>1.355</v>
       </c>
       <c r="G107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:8">
       <c r="B108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="E108">
-        <f t="shared" si="12"/>
-        <v>1.1205515858355002</v>
+        <f t="shared" si="4"/>
+        <v>1.7195</v>
       </c>
       <c r="G108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:8">
       <c r="B109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>107</v>
       </c>
       <c r="E109">
-        <f t="shared" si="12"/>
-        <v>1.0084964272519501</v>
+        <f t="shared" si="4"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:8">
       <c r="B110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="E110">
-        <f t="shared" si="12"/>
-        <v>0.90764678452675507</v>
+        <f t="shared" si="4"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:8">
       <c r="B111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>109</v>
       </c>
       <c r="E111">
-        <f t="shared" si="12"/>
-        <v>0.81688210607407952</v>
+        <f t="shared" si="4"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:8">
       <c r="B112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="E112">
-        <f t="shared" si="12"/>
-        <v>0.73519389546667158</v>
+        <f t="shared" si="4"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="E113">
-        <f t="shared" si="12"/>
-        <v>0.66167450592000443</v>
+        <f t="shared" si="4"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:8">
       <c r="B114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="E114">
-        <f t="shared" si="12"/>
-        <v>0.59550705532800396</v>
+        <f t="shared" si="4"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="E115">
-        <f t="shared" si="12"/>
-        <v>0.53595634979520357</v>
+        <f t="shared" si="4"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="2:8">
       <c r="B116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="E116">
-        <f t="shared" si="12"/>
-        <v>0.48236071481568321</v>
+        <f t="shared" si="4"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="E117">
-        <f t="shared" si="12"/>
-        <v>0.43412464333411488</v>
+        <f t="shared" si="4"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="2:8">
       <c r="B118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="E118">
-        <f t="shared" si="12"/>
-        <v>0.39071217900070337</v>
+        <f t="shared" si="4"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="E119">
-        <f t="shared" si="12"/>
-        <v>0.35164096110063303</v>
+        <f t="shared" si="4"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:8">
       <c r="B120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="E120">
-        <f t="shared" si="12"/>
-        <v>0.31647686499056971</v>
+        <f t="shared" si="4"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G120">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="E121">
-        <f t="shared" si="12"/>
-        <v>0.28482917849151274</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:8">
       <c r="B122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="E122">
-        <f t="shared" si="12"/>
-        <v>0.25634626064236143</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="G122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="E123">
-        <f t="shared" si="12"/>
-        <v>0.2307116345781253</v>
+        <f t="shared" si="4"/>
+        <v>0.95</v>
       </c>
       <c r="G123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:8">
       <c r="B124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
       <c r="E124">
-        <f t="shared" si="12"/>
-        <v>0.20764047112031275</v>
+        <f t="shared" si="4"/>
+        <v>1.355</v>
       </c>
       <c r="G124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="E125">
-        <f t="shared" si="12"/>
-        <v>0.18687642400828147</v>
+        <f t="shared" si="4"/>
+        <v>1.7195</v>
       </c>
       <c r="G125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="2:8">
       <c r="B126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="E126">
-        <f t="shared" si="12"/>
-        <v>0.16818878160745332</v>
+        <f t="shared" si="4"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
       <c r="E127">
-        <f t="shared" si="12"/>
-        <v>0.15136990344670798</v>
+        <f t="shared" si="4"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="2:8">
       <c r="B128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="E128">
-        <f t="shared" si="12"/>
-        <v>0.13623291310203717</v>
+        <f t="shared" si="4"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:8">
       <c r="B129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="E129">
-        <f t="shared" si="12"/>
-        <v>0.12260962179183345</v>
+        <f t="shared" si="4"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="2:8">
       <c r="B130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="E130">
-        <f t="shared" si="12"/>
-        <v>0.1103486596126501</v>
+        <f t="shared" si="4"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="2:8">
       <c r="B131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>129</v>
       </c>
       <c r="E131">
-        <f t="shared" si="12"/>
-        <v>9.9313793651385096E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H152" si="14">IF(AND(B131&gt;25*$A$2,B131&lt;100*$A$2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="B132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="E132">
-        <f t="shared" si="12"/>
-        <v>8.9382414286246589E-2</v>
+        <f t="shared" ref="E132:E152" si="10">IF(E131&lt;=$D$2,E131+$A$2*(-1*(E131/$C$2) + $F$2*(H132/$C$2)),0)</f>
+        <v>3.43094701955</v>
       </c>
       <c r="G132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="B133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="E133">
-        <f t="shared" si="12"/>
-        <v>8.0444172857621926E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="B134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="E134">
-        <f t="shared" si="12"/>
-        <v>7.2399755571859736E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="B135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="E135">
-        <f t="shared" si="12"/>
-        <v>6.5159780014673763E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="B136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="E136">
-        <f t="shared" si="12"/>
-        <v>5.8643802013206389E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.9705443395267546</v>
       </c>
       <c r="G136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="E137">
-        <f t="shared" si="12"/>
-        <v>5.2779421811885753E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.0734899055740792</v>
       </c>
       <c r="G137">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H137">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="B138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
       <c r="E138">
-        <f t="shared" si="12"/>
-        <v>4.7501479630697174E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="2:8">
       <c r="B139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
       <c r="E139">
-        <f t="shared" si="12"/>
-        <v>4.2751331667627457E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="G139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="2:8">
       <c r="B140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="E140">
-        <f t="shared" si="12"/>
-        <v>3.8476198500864714E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.95</v>
       </c>
       <c r="G140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="B141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="E141">
-        <f t="shared" si="12"/>
-        <v>3.4628578650778244E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.355</v>
       </c>
       <c r="G141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="B142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="E142">
-        <f t="shared" si="12"/>
-        <v>3.1165720785700419E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.7195</v>
       </c>
       <c r="G142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="2:8">
       <c r="B143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
       <c r="E143">
-        <f t="shared" si="12"/>
-        <v>2.8049148707130378E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.0475500000000002</v>
       </c>
       <c r="G143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="2:8">
       <c r="B144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="E144">
-        <f t="shared" si="12"/>
-        <v>2.524423383641734E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.3427950000000002</v>
       </c>
       <c r="G144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:8">
       <c r="B145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="E145">
-        <f t="shared" si="12"/>
-        <v>2.2719810452775605E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.6085155000000002</v>
       </c>
       <c r="G145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="2:8">
       <c r="B146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="E146">
-        <f t="shared" si="12"/>
-        <v>2.0447829407498043E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.8476639500000003</v>
       </c>
       <c r="G146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:8">
       <c r="B147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="E147">
-        <f t="shared" si="12"/>
-        <v>1.840304646674824E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.0628975550000002</v>
       </c>
       <c r="G147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:8">
       <c r="B148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
       <c r="E148">
-        <f t="shared" si="12"/>
-        <v>1.6562741820073418E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.2566077995000002</v>
       </c>
       <c r="G148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:8">
       <c r="B149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
       <c r="E149">
-        <f t="shared" si="12"/>
-        <v>1.4906467638066075E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.43094701955</v>
       </c>
       <c r="G149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:8">
       <c r="B150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="E150">
-        <f t="shared" si="12"/>
-        <v>1.3415820874259467E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5878523175949999</v>
       </c>
       <c r="G150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:8">
       <c r="B151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="E151">
-        <f t="shared" si="12"/>
-        <v>1.207423878683352E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.7290670858354997</v>
       </c>
       <c r="G151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:8">
       <c r="B152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E152">
-        <f t="shared" si="12"/>
-        <v>1.0866814908150167E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8561603772519497</v>
       </c>
       <c r="G152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
